--- a/Code/Results/Cases/Case_1_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9971175975033685</v>
+        <v>1.030467032709939</v>
       </c>
       <c r="D2">
-        <v>1.037030420165345</v>
+        <v>1.040428727334756</v>
       </c>
       <c r="E2">
-        <v>1.003742324456272</v>
+        <v>1.030144171202675</v>
       </c>
       <c r="F2">
-        <v>1.006986554869975</v>
+        <v>1.041724324102612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049678786722015</v>
+        <v>1.039609291165755</v>
       </c>
       <c r="J2">
-        <v>1.019384863859084</v>
+        <v>1.035608117816501</v>
       </c>
       <c r="K2">
-        <v>1.04799688632084</v>
+        <v>1.043211102458997</v>
       </c>
       <c r="L2">
-        <v>1.015149767811209</v>
+        <v>1.03295603444136</v>
       </c>
       <c r="M2">
-        <v>1.018349406494002</v>
+        <v>1.044503029288581</v>
       </c>
       <c r="N2">
-        <v>1.00983851280111</v>
+        <v>1.01577726647918</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002846106163248</v>
+        <v>1.031626290725917</v>
       </c>
       <c r="D3">
-        <v>1.040543191427453</v>
+        <v>1.041115305036162</v>
       </c>
       <c r="E3">
-        <v>1.008415304192395</v>
+        <v>1.031135725631961</v>
       </c>
       <c r="F3">
-        <v>1.013376471010058</v>
+        <v>1.043086943986686</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051762536757958</v>
+        <v>1.03994444868674</v>
       </c>
       <c r="J3">
-        <v>1.02325948301332</v>
+        <v>1.036407771802833</v>
       </c>
       <c r="K3">
-        <v>1.050682320399663</v>
+        <v>1.043708427514884</v>
       </c>
       <c r="L3">
-        <v>1.018941630165314</v>
+        <v>1.033755389573087</v>
       </c>
       <c r="M3">
-        <v>1.023841011156094</v>
+        <v>1.045674887641358</v>
       </c>
       <c r="N3">
-        <v>1.011185904310077</v>
+        <v>1.016049898131116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006459238052669</v>
+        <v>1.032375996687559</v>
       </c>
       <c r="D4">
-        <v>1.042761709109519</v>
+        <v>1.04155910439444</v>
       </c>
       <c r="E4">
-        <v>1.011368713068199</v>
+        <v>1.031777287015109</v>
       </c>
       <c r="F4">
-        <v>1.017409553676238</v>
+        <v>1.043968488849291</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053065140511247</v>
+        <v>1.040159710106165</v>
       </c>
       <c r="J4">
-        <v>1.025699146718194</v>
+        <v>1.036924282966968</v>
       </c>
       <c r="K4">
-        <v>1.052370041489149</v>
+        <v>1.044029091502155</v>
       </c>
       <c r="L4">
-        <v>1.021331837131313</v>
+        <v>1.034271977635892</v>
       </c>
       <c r="M4">
-        <v>1.027302305131619</v>
+        <v>1.046432467684437</v>
       </c>
       <c r="N4">
-        <v>1.012033527530386</v>
+        <v>1.016225808845747</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007956807846297</v>
+        <v>1.032691076535835</v>
       </c>
       <c r="D5">
-        <v>1.043681814820254</v>
+        <v>1.041745566636252</v>
       </c>
       <c r="E5">
-        <v>1.012594224254797</v>
+        <v>1.032046990657591</v>
       </c>
       <c r="F5">
-        <v>1.019081880103429</v>
+        <v>1.044339054587261</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053602182579312</v>
+        <v>1.040249821401146</v>
       </c>
       <c r="J5">
-        <v>1.026709296146451</v>
+        <v>1.037141205511406</v>
       </c>
       <c r="K5">
-        <v>1.053068025877098</v>
+        <v>1.044163626073133</v>
       </c>
       <c r="L5">
-        <v>1.022322138357558</v>
+        <v>1.034488997057129</v>
       </c>
       <c r="M5">
-        <v>1.028736365091677</v>
+        <v>1.046750791435959</v>
       </c>
       <c r="N5">
-        <v>1.012384292369958</v>
+        <v>1.016299642241884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008207030325983</v>
+        <v>1.032743974225064</v>
       </c>
       <c r="D6">
-        <v>1.043835581637565</v>
+        <v>1.041776867947872</v>
       </c>
       <c r="E6">
-        <v>1.012799069188592</v>
+        <v>1.032092274600031</v>
       </c>
       <c r="F6">
-        <v>1.019361343593536</v>
+        <v>1.044401272194598</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053691744722668</v>
+        <v>1.040264928940159</v>
       </c>
       <c r="J6">
-        <v>1.026878015229395</v>
+        <v>1.037177614966243</v>
       </c>
       <c r="K6">
-        <v>1.053184555922934</v>
+        <v>1.044186199036126</v>
       </c>
       <c r="L6">
-        <v>1.022487579156223</v>
+        <v>1.034525426558629</v>
       </c>
       <c r="M6">
-        <v>1.028975942200822</v>
+        <v>1.046804229913184</v>
       </c>
       <c r="N6">
-        <v>1.012442866606378</v>
+        <v>1.016312032196393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006479331410329</v>
+        <v>1.032380207176777</v>
       </c>
       <c r="D7">
-        <v>1.042774052337811</v>
+        <v>1.041561596348659</v>
       </c>
       <c r="E7">
-        <v>1.011385150742771</v>
+        <v>1.031780890841614</v>
       </c>
       <c r="F7">
-        <v>1.017431989011661</v>
+        <v>1.043973440503571</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053072357560273</v>
+        <v>1.040160915688533</v>
       </c>
       <c r="J7">
-        <v>1.025712704378705</v>
+        <v>1.036927182354761</v>
       </c>
       <c r="K7">
-        <v>1.0523794127724</v>
+        <v>1.044030890230693</v>
       </c>
       <c r="L7">
-        <v>1.021345125918274</v>
+        <v>1.03427487806472</v>
       </c>
       <c r="M7">
-        <v>1.027321548632179</v>
+        <v>1.046436721779017</v>
       </c>
       <c r="N7">
-        <v>1.012038236090706</v>
+        <v>1.016226795880282</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9990735874947781</v>
+        <v>1.030858895775713</v>
       </c>
       <c r="D8">
-        <v>1.038229159218863</v>
+        <v>1.040660855017296</v>
       </c>
       <c r="E8">
-        <v>1.005336597276931</v>
+        <v>1.030479280661227</v>
       </c>
       <c r="F8">
-        <v>1.009167813688369</v>
+        <v>1.042184863019906</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050392699649072</v>
+        <v>1.039722892347565</v>
       </c>
       <c r="J8">
-        <v>1.020708697180791</v>
+        <v>1.035878555473159</v>
       </c>
       <c r="K8">
-        <v>1.048915042816407</v>
+        <v>1.043379411548084</v>
       </c>
       <c r="L8">
-        <v>1.016444762961664</v>
+        <v>1.033226315041709</v>
       </c>
       <c r="M8">
-        <v>1.020225016772171</v>
+        <v>1.044899208789562</v>
       </c>
       <c r="N8">
-        <v>1.010299026912617</v>
+        <v>1.015869507359673</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9852573908925257</v>
+        <v>1.02817491038172</v>
       </c>
       <c r="D9">
-        <v>1.029779787551591</v>
+        <v>1.039070106449038</v>
       </c>
       <c r="E9">
-        <v>0.9941040760519781</v>
+        <v>1.028185322168162</v>
       </c>
       <c r="F9">
-        <v>0.993771079046428</v>
+        <v>1.039031795394418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045302457915481</v>
+        <v>1.03893870933315</v>
       </c>
       <c r="J9">
-        <v>1.011341709565995</v>
+        <v>1.034023655852822</v>
       </c>
       <c r="K9">
-        <v>1.042407503218483</v>
+        <v>1.042222701563088</v>
       </c>
       <c r="L9">
-        <v>1.007293540327287</v>
+        <v>1.031373604954911</v>
       </c>
       <c r="M9">
-        <v>1.006966031084912</v>
+        <v>1.042184514681324</v>
       </c>
       <c r="N9">
-        <v>1.007037824990475</v>
+        <v>1.01523607572134</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9754555153607406</v>
+        <v>1.026383281595701</v>
       </c>
       <c r="D10">
-        <v>1.023814878535782</v>
+        <v>1.038007251451614</v>
       </c>
       <c r="E10">
-        <v>0.9861752516857958</v>
+        <v>1.026655713775298</v>
       </c>
       <c r="F10">
-        <v>0.9828599064853092</v>
+        <v>1.036928648047903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041633513702735</v>
+        <v>1.03840760761105</v>
       </c>
       <c r="J10">
-        <v>1.004677965997041</v>
+        <v>1.032782218959062</v>
       </c>
       <c r="K10">
-        <v>1.037767061016611</v>
+        <v>1.041445693649502</v>
       </c>
       <c r="L10">
-        <v>1.000798684571217</v>
+        <v>1.030135034001505</v>
       </c>
       <c r="M10">
-        <v>0.9975456836845451</v>
+        <v>1.040370931950171</v>
       </c>
       <c r="N10">
-        <v>1.004714856696842</v>
+        <v>1.014811184983073</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9710518544510671</v>
+        <v>1.025606910867721</v>
       </c>
       <c r="D11">
-        <v>1.021144325065097</v>
+        <v>1.03754646710621</v>
       </c>
       <c r="E11">
-        <v>0.9826238255918571</v>
+        <v>1.025993289557331</v>
       </c>
       <c r="F11">
-        <v>0.9779601515713462</v>
+        <v>1.036017658911312</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039972488423374</v>
+        <v>1.038175657257951</v>
       </c>
       <c r="J11">
-        <v>1.001680545123742</v>
+        <v>1.032243498683045</v>
       </c>
       <c r="K11">
-        <v>1.035678210796774</v>
+        <v>1.041107847102456</v>
       </c>
       <c r="L11">
-        <v>0.9978810431323817</v>
+        <v>1.029597890432748</v>
       </c>
       <c r="M11">
-        <v>0.9933100301725836</v>
+        <v>1.039584697003364</v>
       </c>
       <c r="N11">
-        <v>1.003669471017222</v>
+        <v>1.014626580733951</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9693903657531715</v>
+        <v>1.025318441935231</v>
       </c>
       <c r="D12">
-        <v>1.020138338259954</v>
+        <v>1.037375227074988</v>
       </c>
       <c r="E12">
-        <v>0.9812856090524145</v>
+        <v>1.025747220234151</v>
       </c>
       <c r="F12">
-        <v>0.9761117742955036</v>
+        <v>1.03567922635686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039343973719627</v>
+        <v>1.038089202556266</v>
       </c>
       <c r="J12">
-        <v>1.000549150723995</v>
+        <v>1.03204321665387</v>
       </c>
       <c r="K12">
-        <v>1.034889628896552</v>
+        <v>1.040982145721429</v>
       </c>
       <c r="L12">
-        <v>0.9967803498486731</v>
+        <v>1.029398244694715</v>
       </c>
       <c r="M12">
-        <v>0.9917114056223877</v>
+        <v>1.039292509711537</v>
       </c>
       <c r="N12">
-        <v>1.00327482854063</v>
+        <v>1.014557916358295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9697479583932109</v>
+        <v>1.025380323627373</v>
       </c>
       <c r="D13">
-        <v>1.020354774971272</v>
+        <v>1.03741196245223</v>
       </c>
       <c r="E13">
-        <v>0.9815735458135051</v>
+        <v>1.025800003662062</v>
       </c>
       <c r="F13">
-        <v>0.97650957792625</v>
+        <v>1.035751823638921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039479325714489</v>
+        <v>1.038107760878175</v>
       </c>
       <c r="J13">
-        <v>1.000792674578135</v>
+        <v>1.032086185878895</v>
       </c>
       <c r="K13">
-        <v>1.035059369396225</v>
+        <v>1.041009118607299</v>
       </c>
       <c r="L13">
-        <v>0.9970172387216061</v>
+        <v>1.029441075138855</v>
       </c>
       <c r="M13">
-        <v>0.9920554923064346</v>
+        <v>1.039355191472838</v>
       </c>
       <c r="N13">
-        <v>1.003359774466066</v>
+        <v>1.01457264936677</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9709150522689441</v>
+        <v>1.025583067792397</v>
       </c>
       <c r="D14">
-        <v>1.021061461161732</v>
+        <v>1.037532314069148</v>
       </c>
       <c r="E14">
-        <v>0.9825136049750319</v>
+        <v>1.025972949714102</v>
       </c>
       <c r="F14">
-        <v>0.9778079560563603</v>
+        <v>1.035989685024924</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039920774621939</v>
+        <v>1.038168516968028</v>
       </c>
       <c r="J14">
-        <v>1.001587398631765</v>
+        <v>1.032226946934645</v>
       </c>
       <c r="K14">
-        <v>1.035613289807169</v>
+        <v>1.041097460875157</v>
       </c>
       <c r="L14">
-        <v>0.9977904122052986</v>
+        <v>1.02958139024639</v>
       </c>
       <c r="M14">
-        <v>0.9931784147786485</v>
+        <v>1.039560547679262</v>
       </c>
       <c r="N14">
-        <v>1.003636981539979</v>
+        <v>1.014620906838098</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9716306643289315</v>
+        <v>1.025707973123744</v>
       </c>
       <c r="D15">
-        <v>1.021494988768612</v>
+        <v>1.03760645551653</v>
       </c>
       <c r="E15">
-        <v>0.983090239851112</v>
+        <v>1.026079505392251</v>
       </c>
       <c r="F15">
-        <v>0.9786041019244429</v>
+        <v>1.036136232456213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040191216175668</v>
+        <v>1.038205911293449</v>
       </c>
       <c r="J15">
-        <v>1.002074628868382</v>
+        <v>1.03231365092157</v>
       </c>
       <c r="K15">
-        <v>1.035952873403232</v>
+        <v>1.041151863610108</v>
       </c>
       <c r="L15">
-        <v>0.9982645080513903</v>
+        <v>1.029667826184846</v>
       </c>
       <c r="M15">
-        <v>0.993866873320739</v>
+        <v>1.039687055156878</v>
       </c>
       <c r="N15">
-        <v>1.003806925202673</v>
+        <v>1.014650627371899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9757442619972566</v>
+        <v>1.026434794246434</v>
       </c>
       <c r="D16">
-        <v>1.023990195967899</v>
+        <v>1.03803782037711</v>
       </c>
       <c r="E16">
-        <v>0.9864083497434016</v>
+        <v>1.026699674595903</v>
       </c>
       <c r="F16">
-        <v>0.9831812245568704</v>
+        <v>1.036989100499354</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041742170785501</v>
+        <v>1.03842295963137</v>
       </c>
       <c r="J16">
-        <v>1.004874436380712</v>
+        <v>1.03281794726738</v>
       </c>
       <c r="K16">
-        <v>1.037903954045777</v>
+        <v>1.041468085958096</v>
       </c>
       <c r="L16">
-        <v>1.000990006031866</v>
+        <v>1.030170664758847</v>
       </c>
       <c r="M16">
-        <v>0.997823342445986</v>
+        <v>1.040423091665779</v>
       </c>
       <c r="N16">
-        <v>1.00478336938621</v>
+        <v>1.014823423381008</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9782807083168166</v>
+        <v>1.02689055185184</v>
       </c>
       <c r="D17">
-        <v>1.025531318189906</v>
+        <v>1.038308253999517</v>
       </c>
       <c r="E17">
-        <v>0.9884571893226176</v>
+        <v>1.027088664285311</v>
       </c>
       <c r="F17">
-        <v>0.986004041058044</v>
+        <v>1.037523995841074</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04269522369475</v>
+        <v>1.038558577869463</v>
       </c>
       <c r="J17">
-        <v>1.006599895118199</v>
+        <v>1.033133964721094</v>
       </c>
       <c r="K17">
-        <v>1.039106025268098</v>
+        <v>1.041666069695175</v>
       </c>
       <c r="L17">
-        <v>1.002670678717324</v>
+        <v>1.030485857811756</v>
       </c>
       <c r="M17">
-        <v>1.000262002588276</v>
+        <v>1.040884533593134</v>
       </c>
       <c r="N17">
-        <v>1.005385013887136</v>
+        <v>1.014931646455626</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9797449291134881</v>
+        <v>1.027156331413722</v>
       </c>
       <c r="D18">
-        <v>1.026421827429552</v>
+        <v>1.038465939210763</v>
       </c>
       <c r="E18">
-        <v>0.9896409333260836</v>
+        <v>1.027315546444535</v>
       </c>
       <c r="F18">
-        <v>0.9876337943194556</v>
+        <v>1.037835961344495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04324419114432</v>
+        <v>1.038637490709524</v>
       </c>
       <c r="J18">
-        <v>1.007595608794526</v>
+        <v>1.033318179581554</v>
       </c>
       <c r="K18">
-        <v>1.039799555675547</v>
+        <v>1.04178141548694</v>
       </c>
       <c r="L18">
-        <v>1.003640906062939</v>
+        <v>1.030669624193988</v>
       </c>
       <c r="M18">
-        <v>1.001669454189612</v>
+        <v>1.041153594218291</v>
       </c>
       <c r="N18">
-        <v>1.005732158501494</v>
+        <v>1.014994710989406</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.980241657195224</v>
+        <v>1.027246945932555</v>
       </c>
       <c r="D19">
-        <v>1.026724067493926</v>
+        <v>1.038519696605874</v>
       </c>
       <c r="E19">
-        <v>0.9900426786273373</v>
+        <v>1.027392905922767</v>
       </c>
       <c r="F19">
-        <v>0.9881867169636794</v>
+        <v>1.037942328559609</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043430218219175</v>
+        <v>1.038664365571802</v>
       </c>
       <c r="J19">
-        <v>1.007933337991661</v>
+        <v>1.033380973007587</v>
       </c>
       <c r="K19">
-        <v>1.04003476103219</v>
+        <v>1.041820722568819</v>
       </c>
       <c r="L19">
-        <v>1.003970051104144</v>
+        <v>1.03073227018707</v>
       </c>
       <c r="M19">
-        <v>1.00214686976216</v>
+        <v>1.041245321659218</v>
       </c>
       <c r="N19">
-        <v>1.005849895486225</v>
+        <v>1.015016204175328</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9780101611544366</v>
+        <v>1.026841659199078</v>
       </c>
       <c r="D20">
-        <v>1.025366845210319</v>
+        <v>1.038279244630891</v>
       </c>
       <c r="E20">
-        <v>0.9882385470152947</v>
+        <v>1.027046930308128</v>
       </c>
       <c r="F20">
-        <v>0.9857029261966129</v>
+        <v>1.037466609751942</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042593691773158</v>
+        <v>1.03854404707433</v>
       </c>
       <c r="J20">
-        <v>1.006415886517966</v>
+        <v>1.033100070714859</v>
       </c>
       <c r="K20">
-        <v>1.038977847457956</v>
+        <v>1.041644841855695</v>
       </c>
       <c r="L20">
-        <v>1.002491408918002</v>
+        <v>1.030452048905263</v>
       </c>
       <c r="M20">
-        <v>1.000001918989386</v>
+        <v>1.040835034639491</v>
       </c>
       <c r="N20">
-        <v>1.005320857343287</v>
+        <v>1.01492004136901</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9705720992865938</v>
+        <v>1.025523367201982</v>
       </c>
       <c r="D21">
-        <v>1.020853754045071</v>
+        <v>1.037496875841539</v>
       </c>
       <c r="E21">
-        <v>0.9822373182016587</v>
+        <v>1.025922021850781</v>
       </c>
       <c r="F21">
-        <v>0.9774264175291351</v>
+        <v>1.035919642202503</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039791103056872</v>
+        <v>1.038150634045091</v>
       </c>
       <c r="J21">
-        <v>1.001353879823497</v>
+        <v>1.032185501219961</v>
       </c>
       <c r="K21">
-        <v>1.035450530704048</v>
+        <v>1.041071452081821</v>
       </c>
       <c r="L21">
-        <v>0.9975632094474307</v>
+        <v>1.029540074453114</v>
       </c>
       <c r="M21">
-        <v>0.9928484561991852</v>
+        <v>1.039500079412586</v>
       </c>
       <c r="N21">
-        <v>1.003555529399858</v>
+        <v>1.014606698817681</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9657453334642818</v>
+        <v>1.024693981100814</v>
       </c>
       <c r="D22">
-        <v>1.017934572952643</v>
+        <v>1.037004482362875</v>
       </c>
       <c r="E22">
-        <v>0.9783530966865324</v>
+        <v>1.025214657028684</v>
       </c>
       <c r="F22">
-        <v>0.9720571989683443</v>
+        <v>1.03494670755728</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037961880437845</v>
+        <v>1.037901555162246</v>
       </c>
       <c r="J22">
-        <v>0.9980662602990663</v>
+        <v>1.031609448308867</v>
       </c>
       <c r="K22">
-        <v>1.033158922650185</v>
+        <v>1.040709723292267</v>
       </c>
       <c r="L22">
-        <v>0.9943659356063177</v>
+        <v>1.028965946183836</v>
       </c>
       <c r="M22">
-        <v>0.9882033031525764</v>
+        <v>1.038659901749458</v>
       </c>
       <c r="N22">
-        <v>1.002408688736316</v>
+        <v>1.014409143052806</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9683189874539614</v>
+        <v>1.025133704864581</v>
       </c>
       <c r="D23">
-        <v>1.019490127619235</v>
+        <v>1.037265555612202</v>
       </c>
       <c r="E23">
-        <v>0.9804231880452313</v>
+        <v>1.025589653526571</v>
       </c>
       <c r="F23">
-        <v>0.9749199577003035</v>
+        <v>1.035462507794081</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038938188959653</v>
+        <v>1.038033760244877</v>
       </c>
       <c r="J23">
-        <v>0.9998194680324153</v>
+        <v>1.031914922707706</v>
       </c>
       <c r="K23">
-        <v>1.034381015315961</v>
+        <v>1.04090159790433</v>
       </c>
       <c r="L23">
-        <v>0.9960706353063271</v>
+        <v>1.029270372453221</v>
       </c>
       <c r="M23">
-        <v>0.9906804142477315</v>
+        <v>1.039105376345238</v>
       </c>
       <c r="N23">
-        <v>1.003020294156642</v>
+        <v>1.014513922891613</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9781324567493004</v>
+        <v>1.026863751857093</v>
       </c>
       <c r="D24">
-        <v>1.025441189370346</v>
+        <v>1.03829235288306</v>
       </c>
       <c r="E24">
-        <v>0.9883373769162253</v>
+        <v>1.027065788123223</v>
       </c>
       <c r="F24">
-        <v>0.9858390386433861</v>
+        <v>1.037492540146941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042639591051346</v>
+        <v>1.038550613505083</v>
       </c>
       <c r="J24">
-        <v>1.006499065114842</v>
+        <v>1.033115386305334</v>
       </c>
       <c r="K24">
-        <v>1.039035788978117</v>
+        <v>1.041654434218874</v>
       </c>
       <c r="L24">
-        <v>1.002572444292517</v>
+        <v>1.030467325942819</v>
       </c>
       <c r="M24">
-        <v>1.000119485725392</v>
+        <v>1.040857401365261</v>
       </c>
       <c r="N24">
-        <v>1.005349858589272</v>
+        <v>1.014925285393851</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9889274116271253</v>
+        <v>1.028869181941209</v>
       </c>
       <c r="D25">
-        <v>1.032019866092221</v>
+        <v>1.039481769436754</v>
       </c>
       <c r="E25">
-        <v>0.9970813075226409</v>
+        <v>1.028778414061988</v>
       </c>
       <c r="F25">
-        <v>0.9978587139922591</v>
+        <v>1.03984711970221</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046664768630208</v>
+        <v>1.039142902958222</v>
       </c>
       <c r="J25">
-        <v>1.013833246099514</v>
+        <v>1.034504039029463</v>
       </c>
       <c r="K25">
-        <v>1.044140648093923</v>
+        <v>1.042522772743085</v>
       </c>
       <c r="L25">
-        <v>1.009725102035391</v>
+        <v>1.031853174942488</v>
       </c>
       <c r="M25">
-        <v>1.010490361863006</v>
+        <v>1.042886984123034</v>
       </c>
       <c r="N25">
-        <v>1.007905839722367</v>
+        <v>1.015400290392737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030467032709939</v>
+        <v>0.997117597503368</v>
       </c>
       <c r="D2">
-        <v>1.040428727334756</v>
+        <v>1.037030420165344</v>
       </c>
       <c r="E2">
-        <v>1.030144171202675</v>
+        <v>1.003742324456272</v>
       </c>
       <c r="F2">
-        <v>1.041724324102612</v>
+        <v>1.006986554869975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039609291165755</v>
+        <v>1.049678786722014</v>
       </c>
       <c r="J2">
-        <v>1.035608117816501</v>
+        <v>1.019384863859084</v>
       </c>
       <c r="K2">
-        <v>1.043211102458997</v>
+        <v>1.047996886320839</v>
       </c>
       <c r="L2">
-        <v>1.03295603444136</v>
+        <v>1.015149767811208</v>
       </c>
       <c r="M2">
-        <v>1.044503029288581</v>
+        <v>1.018349406494002</v>
       </c>
       <c r="N2">
-        <v>1.01577726647918</v>
+        <v>1.00983851280111</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031626290725917</v>
+        <v>1.002846106163247</v>
       </c>
       <c r="D3">
-        <v>1.041115305036162</v>
+        <v>1.040543191427452</v>
       </c>
       <c r="E3">
-        <v>1.031135725631961</v>
+        <v>1.008415304192393</v>
       </c>
       <c r="F3">
-        <v>1.043086943986686</v>
+        <v>1.013376471010057</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03994444868674</v>
+        <v>1.051762536757957</v>
       </c>
       <c r="J3">
-        <v>1.036407771802833</v>
+        <v>1.023259483013319</v>
       </c>
       <c r="K3">
-        <v>1.043708427514884</v>
+        <v>1.050682320399662</v>
       </c>
       <c r="L3">
-        <v>1.033755389573087</v>
+        <v>1.018941630165313</v>
       </c>
       <c r="M3">
-        <v>1.045674887641358</v>
+        <v>1.023841011156092</v>
       </c>
       <c r="N3">
-        <v>1.016049898131116</v>
+        <v>1.011185904310076</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032375996687559</v>
+        <v>1.006459238052669</v>
       </c>
       <c r="D4">
-        <v>1.04155910439444</v>
+        <v>1.042761709109518</v>
       </c>
       <c r="E4">
-        <v>1.031777287015109</v>
+        <v>1.011368713068199</v>
       </c>
       <c r="F4">
-        <v>1.043968488849291</v>
+        <v>1.017409553676238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040159710106165</v>
+        <v>1.053065140511247</v>
       </c>
       <c r="J4">
-        <v>1.036924282966968</v>
+        <v>1.025699146718194</v>
       </c>
       <c r="K4">
-        <v>1.044029091502155</v>
+        <v>1.052370041489149</v>
       </c>
       <c r="L4">
-        <v>1.034271977635892</v>
+        <v>1.021331837131313</v>
       </c>
       <c r="M4">
-        <v>1.046432467684437</v>
+        <v>1.027302305131619</v>
       </c>
       <c r="N4">
-        <v>1.016225808845747</v>
+        <v>1.012033527530386</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032691076535835</v>
+        <v>1.007956807846297</v>
       </c>
       <c r="D5">
-        <v>1.041745566636252</v>
+        <v>1.043681814820254</v>
       </c>
       <c r="E5">
-        <v>1.032046990657591</v>
+        <v>1.012594224254796</v>
       </c>
       <c r="F5">
-        <v>1.044339054587261</v>
+        <v>1.019081880103429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040249821401146</v>
+        <v>1.053602182579312</v>
       </c>
       <c r="J5">
-        <v>1.037141205511406</v>
+        <v>1.02670929614645</v>
       </c>
       <c r="K5">
-        <v>1.044163626073133</v>
+        <v>1.053068025877098</v>
       </c>
       <c r="L5">
-        <v>1.034488997057129</v>
+        <v>1.022322138357558</v>
       </c>
       <c r="M5">
-        <v>1.046750791435959</v>
+        <v>1.028736365091677</v>
       </c>
       <c r="N5">
-        <v>1.016299642241884</v>
+        <v>1.012384292369958</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032743974225064</v>
+        <v>1.008207030325983</v>
       </c>
       <c r="D6">
-        <v>1.041776867947872</v>
+        <v>1.043835581637564</v>
       </c>
       <c r="E6">
-        <v>1.032092274600031</v>
+        <v>1.012799069188592</v>
       </c>
       <c r="F6">
-        <v>1.044401272194598</v>
+        <v>1.019361343593536</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040264928940159</v>
+        <v>1.053691744722668</v>
       </c>
       <c r="J6">
-        <v>1.037177614966243</v>
+        <v>1.026878015229394</v>
       </c>
       <c r="K6">
-        <v>1.044186199036126</v>
+        <v>1.053184555922934</v>
       </c>
       <c r="L6">
-        <v>1.034525426558629</v>
+        <v>1.022487579156222</v>
       </c>
       <c r="M6">
-        <v>1.046804229913184</v>
+        <v>1.028975942200822</v>
       </c>
       <c r="N6">
-        <v>1.016312032196393</v>
+        <v>1.012442866606378</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032380207176777</v>
+        <v>1.00647933141033</v>
       </c>
       <c r="D7">
-        <v>1.041561596348659</v>
+        <v>1.042774052337812</v>
       </c>
       <c r="E7">
-        <v>1.031780890841614</v>
+        <v>1.011385150742772</v>
       </c>
       <c r="F7">
-        <v>1.043973440503571</v>
+        <v>1.017431989011662</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040160915688533</v>
+        <v>1.053072357560274</v>
       </c>
       <c r="J7">
-        <v>1.036927182354761</v>
+        <v>1.025712704378706</v>
       </c>
       <c r="K7">
-        <v>1.044030890230693</v>
+        <v>1.052379412772401</v>
       </c>
       <c r="L7">
-        <v>1.03427487806472</v>
+        <v>1.021345125918275</v>
       </c>
       <c r="M7">
-        <v>1.046436721779017</v>
+        <v>1.02732154863218</v>
       </c>
       <c r="N7">
-        <v>1.016226795880282</v>
+        <v>1.012038236090706</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030858895775713</v>
+        <v>0.9990735874947776</v>
       </c>
       <c r="D8">
-        <v>1.040660855017296</v>
+        <v>1.038229159218863</v>
       </c>
       <c r="E8">
-        <v>1.030479280661227</v>
+        <v>1.00533659727693</v>
       </c>
       <c r="F8">
-        <v>1.042184863019906</v>
+        <v>1.009167813688369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039722892347565</v>
+        <v>1.050392699649072</v>
       </c>
       <c r="J8">
-        <v>1.035878555473159</v>
+        <v>1.02070869718079</v>
       </c>
       <c r="K8">
-        <v>1.043379411548084</v>
+        <v>1.048915042816407</v>
       </c>
       <c r="L8">
-        <v>1.033226315041709</v>
+        <v>1.016444762961664</v>
       </c>
       <c r="M8">
-        <v>1.044899208789562</v>
+        <v>1.020225016772171</v>
       </c>
       <c r="N8">
-        <v>1.015869507359673</v>
+        <v>1.010299026912617</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02817491038172</v>
+        <v>0.9852573908925258</v>
       </c>
       <c r="D9">
-        <v>1.039070106449038</v>
+        <v>1.029779787551591</v>
       </c>
       <c r="E9">
-        <v>1.028185322168162</v>
+        <v>0.9941040760519783</v>
       </c>
       <c r="F9">
-        <v>1.039031795394418</v>
+        <v>0.993771079046428</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03893870933315</v>
+        <v>1.045302457915481</v>
       </c>
       <c r="J9">
-        <v>1.034023655852822</v>
+        <v>1.011341709565996</v>
       </c>
       <c r="K9">
-        <v>1.042222701563088</v>
+        <v>1.042407503218483</v>
       </c>
       <c r="L9">
-        <v>1.031373604954911</v>
+        <v>1.007293540327287</v>
       </c>
       <c r="M9">
-        <v>1.042184514681324</v>
+        <v>1.006966031084912</v>
       </c>
       <c r="N9">
-        <v>1.01523607572134</v>
+        <v>1.007037824990475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026383281595701</v>
+        <v>0.9754555153607406</v>
       </c>
       <c r="D10">
-        <v>1.038007251451614</v>
+        <v>1.023814878535781</v>
       </c>
       <c r="E10">
-        <v>1.026655713775298</v>
+        <v>0.9861752516857957</v>
       </c>
       <c r="F10">
-        <v>1.036928648047903</v>
+        <v>0.9828599064853091</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03840760761105</v>
+        <v>1.041633513702735</v>
       </c>
       <c r="J10">
-        <v>1.032782218959062</v>
+        <v>1.004677965997041</v>
       </c>
       <c r="K10">
-        <v>1.041445693649502</v>
+        <v>1.03776706101661</v>
       </c>
       <c r="L10">
-        <v>1.030135034001505</v>
+        <v>1.000798684571217</v>
       </c>
       <c r="M10">
-        <v>1.040370931950171</v>
+        <v>0.9975456836845451</v>
       </c>
       <c r="N10">
-        <v>1.014811184983073</v>
+        <v>1.004714856696842</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025606910867721</v>
+        <v>0.9710518544510672</v>
       </c>
       <c r="D11">
-        <v>1.03754646710621</v>
+        <v>1.021144325065098</v>
       </c>
       <c r="E11">
-        <v>1.025993289557331</v>
+        <v>0.9826238255918573</v>
       </c>
       <c r="F11">
-        <v>1.036017658911312</v>
+        <v>0.9779601515713464</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038175657257951</v>
+        <v>1.039972488423374</v>
       </c>
       <c r="J11">
-        <v>1.032243498683045</v>
+        <v>1.001680545123742</v>
       </c>
       <c r="K11">
-        <v>1.041107847102456</v>
+        <v>1.035678210796774</v>
       </c>
       <c r="L11">
-        <v>1.029597890432748</v>
+        <v>0.9978810431323818</v>
       </c>
       <c r="M11">
-        <v>1.039584697003364</v>
+        <v>0.9933100301725839</v>
       </c>
       <c r="N11">
-        <v>1.014626580733951</v>
+        <v>1.003669471017222</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025318441935231</v>
+        <v>0.9693903657531712</v>
       </c>
       <c r="D12">
-        <v>1.037375227074988</v>
+        <v>1.020138338259953</v>
       </c>
       <c r="E12">
-        <v>1.025747220234151</v>
+        <v>0.981285609052414</v>
       </c>
       <c r="F12">
-        <v>1.03567922635686</v>
+        <v>0.9761117742955034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038089202556266</v>
+        <v>1.039343973719627</v>
       </c>
       <c r="J12">
-        <v>1.03204321665387</v>
+        <v>1.000549150723995</v>
       </c>
       <c r="K12">
-        <v>1.040982145721429</v>
+        <v>1.034889628896552</v>
       </c>
       <c r="L12">
-        <v>1.029398244694715</v>
+        <v>0.9967803498486728</v>
       </c>
       <c r="M12">
-        <v>1.039292509711537</v>
+        <v>0.9917114056223876</v>
       </c>
       <c r="N12">
-        <v>1.014557916358295</v>
+        <v>1.00327482854063</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025380323627373</v>
+        <v>0.9697479583932113</v>
       </c>
       <c r="D13">
-        <v>1.03741196245223</v>
+        <v>1.020354774971272</v>
       </c>
       <c r="E13">
-        <v>1.025800003662062</v>
+        <v>0.9815735458135052</v>
       </c>
       <c r="F13">
-        <v>1.035751823638921</v>
+        <v>0.97650957792625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038107760878175</v>
+        <v>1.039479325714489</v>
       </c>
       <c r="J13">
-        <v>1.032086185878895</v>
+        <v>1.000792674578136</v>
       </c>
       <c r="K13">
-        <v>1.041009118607299</v>
+        <v>1.035059369396225</v>
       </c>
       <c r="L13">
-        <v>1.029441075138855</v>
+        <v>0.9970172387216064</v>
       </c>
       <c r="M13">
-        <v>1.039355191472838</v>
+        <v>0.9920554923064345</v>
       </c>
       <c r="N13">
-        <v>1.01457264936677</v>
+        <v>1.003359774466066</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025583067792397</v>
+        <v>0.9709150522689434</v>
       </c>
       <c r="D14">
-        <v>1.037532314069148</v>
+        <v>1.021061461161731</v>
       </c>
       <c r="E14">
-        <v>1.025972949714102</v>
+        <v>0.9825136049750315</v>
       </c>
       <c r="F14">
-        <v>1.035989685024924</v>
+        <v>0.9778079560563596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038168516968028</v>
+        <v>1.039920774621939</v>
       </c>
       <c r="J14">
-        <v>1.032226946934645</v>
+        <v>1.001587398631764</v>
       </c>
       <c r="K14">
-        <v>1.041097460875157</v>
+        <v>1.035613289807169</v>
       </c>
       <c r="L14">
-        <v>1.02958139024639</v>
+        <v>0.9977904122052983</v>
       </c>
       <c r="M14">
-        <v>1.039560547679262</v>
+        <v>0.9931784147786478</v>
       </c>
       <c r="N14">
-        <v>1.014620906838098</v>
+        <v>1.003636981539978</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025707973123744</v>
+        <v>0.9716306643289322</v>
       </c>
       <c r="D15">
-        <v>1.03760645551653</v>
+        <v>1.021494988768612</v>
       </c>
       <c r="E15">
-        <v>1.026079505392251</v>
+        <v>0.9830902398511129</v>
       </c>
       <c r="F15">
-        <v>1.036136232456213</v>
+        <v>0.978604101924443</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038205911293449</v>
+        <v>1.040191216175668</v>
       </c>
       <c r="J15">
-        <v>1.03231365092157</v>
+        <v>1.002074628868382</v>
       </c>
       <c r="K15">
-        <v>1.041151863610108</v>
+        <v>1.035952873403232</v>
       </c>
       <c r="L15">
-        <v>1.029667826184846</v>
+        <v>0.9982645080513912</v>
       </c>
       <c r="M15">
-        <v>1.039687055156878</v>
+        <v>0.9938668733207391</v>
       </c>
       <c r="N15">
-        <v>1.014650627371899</v>
+        <v>1.003806925202673</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026434794246434</v>
+        <v>0.9757442619972571</v>
       </c>
       <c r="D16">
-        <v>1.03803782037711</v>
+        <v>1.023990195967899</v>
       </c>
       <c r="E16">
-        <v>1.026699674595903</v>
+        <v>0.986408349743402</v>
       </c>
       <c r="F16">
-        <v>1.036989100499354</v>
+        <v>0.9831812245568708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03842295963137</v>
+        <v>1.041742170785501</v>
       </c>
       <c r="J16">
-        <v>1.03281794726738</v>
+        <v>1.004874436380712</v>
       </c>
       <c r="K16">
-        <v>1.041468085958096</v>
+        <v>1.037903954045777</v>
       </c>
       <c r="L16">
-        <v>1.030170664758847</v>
+        <v>1.000990006031867</v>
       </c>
       <c r="M16">
-        <v>1.040423091665779</v>
+        <v>0.9978233424459864</v>
       </c>
       <c r="N16">
-        <v>1.014823423381008</v>
+        <v>1.00478336938621</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02689055185184</v>
+        <v>0.9782807083168169</v>
       </c>
       <c r="D17">
-        <v>1.038308253999517</v>
+        <v>1.025531318189907</v>
       </c>
       <c r="E17">
-        <v>1.027088664285311</v>
+        <v>0.9884571893226177</v>
       </c>
       <c r="F17">
-        <v>1.037523995841074</v>
+        <v>0.9860040410580434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038558577869463</v>
+        <v>1.04269522369475</v>
       </c>
       <c r="J17">
-        <v>1.033133964721094</v>
+        <v>1.006599895118199</v>
       </c>
       <c r="K17">
-        <v>1.041666069695175</v>
+        <v>1.039106025268098</v>
       </c>
       <c r="L17">
-        <v>1.030485857811756</v>
+        <v>1.002670678717324</v>
       </c>
       <c r="M17">
-        <v>1.040884533593134</v>
+        <v>1.000262002588276</v>
       </c>
       <c r="N17">
-        <v>1.014931646455626</v>
+        <v>1.005385013887136</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027156331413722</v>
+        <v>0.9797449291134884</v>
       </c>
       <c r="D18">
-        <v>1.038465939210763</v>
+        <v>1.026421827429552</v>
       </c>
       <c r="E18">
-        <v>1.027315546444535</v>
+        <v>0.9896409333260838</v>
       </c>
       <c r="F18">
-        <v>1.037835961344495</v>
+        <v>0.9876337943194559</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038637490709524</v>
+        <v>1.04324419114432</v>
       </c>
       <c r="J18">
-        <v>1.033318179581554</v>
+        <v>1.007595608794527</v>
       </c>
       <c r="K18">
-        <v>1.04178141548694</v>
+        <v>1.039799555675547</v>
       </c>
       <c r="L18">
-        <v>1.030669624193988</v>
+        <v>1.003640906062939</v>
       </c>
       <c r="M18">
-        <v>1.041153594218291</v>
+        <v>1.001669454189613</v>
       </c>
       <c r="N18">
-        <v>1.014994710989406</v>
+        <v>1.005732158501494</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027246945932555</v>
+        <v>0.980241657195224</v>
       </c>
       <c r="D19">
-        <v>1.038519696605874</v>
+        <v>1.026724067493926</v>
       </c>
       <c r="E19">
-        <v>1.027392905922767</v>
+        <v>0.9900426786273374</v>
       </c>
       <c r="F19">
-        <v>1.037942328559609</v>
+        <v>0.9881867169636795</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038664365571802</v>
+        <v>1.043430218219175</v>
       </c>
       <c r="J19">
-        <v>1.033380973007587</v>
+        <v>1.007933337991661</v>
       </c>
       <c r="K19">
-        <v>1.041820722568819</v>
+        <v>1.04003476103219</v>
       </c>
       <c r="L19">
-        <v>1.03073227018707</v>
+        <v>1.003970051104144</v>
       </c>
       <c r="M19">
-        <v>1.041245321659218</v>
+        <v>1.00214686976216</v>
       </c>
       <c r="N19">
-        <v>1.015016204175328</v>
+        <v>1.005849895486225</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026841659199078</v>
+        <v>0.9780101611544356</v>
       </c>
       <c r="D20">
-        <v>1.038279244630891</v>
+        <v>1.025366845210319</v>
       </c>
       <c r="E20">
-        <v>1.027046930308128</v>
+        <v>0.9882385470152936</v>
       </c>
       <c r="F20">
-        <v>1.037466609751942</v>
+        <v>0.9857029261966124</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03854404707433</v>
+        <v>1.042593691773157</v>
       </c>
       <c r="J20">
-        <v>1.033100070714859</v>
+        <v>1.006415886517965</v>
       </c>
       <c r="K20">
-        <v>1.041644841855695</v>
+        <v>1.038977847457956</v>
       </c>
       <c r="L20">
-        <v>1.030452048905263</v>
+        <v>1.002491408918001</v>
       </c>
       <c r="M20">
-        <v>1.040835034639491</v>
+        <v>1.000001918989385</v>
       </c>
       <c r="N20">
-        <v>1.01492004136901</v>
+        <v>1.005320857343287</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025523367201982</v>
+        <v>0.9705720992865936</v>
       </c>
       <c r="D21">
-        <v>1.037496875841539</v>
+        <v>1.02085375404507</v>
       </c>
       <c r="E21">
-        <v>1.025922021850781</v>
+        <v>0.9822373182016587</v>
       </c>
       <c r="F21">
-        <v>1.035919642202503</v>
+        <v>0.9774264175291348</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038150634045091</v>
+        <v>1.039791103056872</v>
       </c>
       <c r="J21">
-        <v>1.032185501219961</v>
+        <v>1.001353879823496</v>
       </c>
       <c r="K21">
-        <v>1.041071452081821</v>
+        <v>1.035450530704047</v>
       </c>
       <c r="L21">
-        <v>1.029540074453114</v>
+        <v>0.9975632094474306</v>
       </c>
       <c r="M21">
-        <v>1.039500079412586</v>
+        <v>0.9928484561991848</v>
       </c>
       <c r="N21">
-        <v>1.014606698817681</v>
+        <v>1.003555529399858</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024693981100814</v>
+        <v>0.9657453334642815</v>
       </c>
       <c r="D22">
-        <v>1.037004482362875</v>
+        <v>1.017934572952643</v>
       </c>
       <c r="E22">
-        <v>1.025214657028684</v>
+        <v>0.9783530966865319</v>
       </c>
       <c r="F22">
-        <v>1.03494670755728</v>
+        <v>0.9720571989683439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037901555162246</v>
+        <v>1.037961880437845</v>
       </c>
       <c r="J22">
-        <v>1.031609448308867</v>
+        <v>0.9980662602990658</v>
       </c>
       <c r="K22">
-        <v>1.040709723292267</v>
+        <v>1.033158922650185</v>
       </c>
       <c r="L22">
-        <v>1.028965946183836</v>
+        <v>0.9943659356063173</v>
       </c>
       <c r="M22">
-        <v>1.038659901749458</v>
+        <v>0.9882033031525759</v>
       </c>
       <c r="N22">
-        <v>1.014409143052806</v>
+        <v>1.002408688736315</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025133704864581</v>
+        <v>0.9683189874539626</v>
       </c>
       <c r="D23">
-        <v>1.037265555612202</v>
+        <v>1.019490127619236</v>
       </c>
       <c r="E23">
-        <v>1.025589653526571</v>
+        <v>0.9804231880452322</v>
       </c>
       <c r="F23">
-        <v>1.035462507794081</v>
+        <v>0.9749199577003048</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038033760244877</v>
+        <v>1.038938188959654</v>
       </c>
       <c r="J23">
-        <v>1.031914922707706</v>
+        <v>0.9998194680324163</v>
       </c>
       <c r="K23">
-        <v>1.04090159790433</v>
+        <v>1.034381015315963</v>
       </c>
       <c r="L23">
-        <v>1.029270372453221</v>
+        <v>0.9960706353063279</v>
       </c>
       <c r="M23">
-        <v>1.039105376345238</v>
+        <v>0.9906804142477326</v>
       </c>
       <c r="N23">
-        <v>1.014513922891613</v>
+        <v>1.003020294156642</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026863751857093</v>
+        <v>0.9781324567493006</v>
       </c>
       <c r="D24">
-        <v>1.03829235288306</v>
+        <v>1.025441189370347</v>
       </c>
       <c r="E24">
-        <v>1.027065788123223</v>
+        <v>0.9883373769162254</v>
       </c>
       <c r="F24">
-        <v>1.037492540146941</v>
+        <v>0.9858390386433861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038550613505083</v>
+        <v>1.042639591051346</v>
       </c>
       <c r="J24">
-        <v>1.033115386305334</v>
+        <v>1.006499065114842</v>
       </c>
       <c r="K24">
-        <v>1.041654434218874</v>
+        <v>1.039035788978118</v>
       </c>
       <c r="L24">
-        <v>1.030467325942819</v>
+        <v>1.002572444292517</v>
       </c>
       <c r="M24">
-        <v>1.040857401365261</v>
+        <v>1.000119485725392</v>
       </c>
       <c r="N24">
-        <v>1.014925285393851</v>
+        <v>1.005349858589272</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028869181941209</v>
+        <v>0.9889274116271257</v>
       </c>
       <c r="D25">
-        <v>1.039481769436754</v>
+        <v>1.032019866092222</v>
       </c>
       <c r="E25">
-        <v>1.028778414061988</v>
+        <v>0.9970813075226412</v>
       </c>
       <c r="F25">
-        <v>1.03984711970221</v>
+        <v>0.99785871399226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039142902958222</v>
+        <v>1.046664768630209</v>
       </c>
       <c r="J25">
-        <v>1.034504039029463</v>
+        <v>1.013833246099514</v>
       </c>
       <c r="K25">
-        <v>1.042522772743085</v>
+        <v>1.044140648093923</v>
       </c>
       <c r="L25">
-        <v>1.031853174942488</v>
+        <v>1.009725102035391</v>
       </c>
       <c r="M25">
-        <v>1.042886984123034</v>
+        <v>1.010490361863007</v>
       </c>
       <c r="N25">
-        <v>1.015400290392737</v>
+        <v>1.007905839722367</v>
       </c>
     </row>
   </sheetData>
